--- a/data/Lineups.xlsx
+++ b/data/Lineups.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\richjo\FAFL\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\richjo\FAFL\fantasyawards\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -362,9 +362,6 @@
     <t>Marina de Tavira</t>
   </si>
   <si>
-    <t>Robert Forster</t>
-  </si>
-  <si>
     <t>Black Panther</t>
   </si>
   <si>
@@ -449,10 +446,13 @@
     <t>PLAYER</t>
   </si>
   <si>
-    <t>Chris and Ally Singh</t>
-  </si>
-  <si>
     <t>TEAM</t>
+  </si>
+  <si>
+    <t>Ally and Chris Singh</t>
+  </si>
+  <si>
+    <t>Nick Vallelonga</t>
   </si>
 </sst>
 </file>
@@ -784,9 +784,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B79" sqref="B79"/>
+      <selection pane="topRight" activeCell="B106" sqref="B106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -801,10 +801,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1565,7 +1565,7 @@
         <v>14</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>5</v>
@@ -1749,7 +1749,7 @@
         <v>18</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C89" s="3" t="s">
         <v>6</v>
@@ -1760,7 +1760,7 @@
         <v>18</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C90" s="3" t="s">
         <v>6</v>
@@ -1922,7 +1922,7 @@
         <v>19</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>112</v>
+        <v>142</v>
       </c>
       <c r="C105" s="3" t="s">
         <v>7</v>
@@ -1941,7 +1941,7 @@
         <v>10</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C107" s="3" t="s">
         <v>8</v>
@@ -1952,7 +1952,7 @@
         <v>11</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C108" s="3" t="s">
         <v>8</v>
@@ -1963,7 +1963,7 @@
         <v>12</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C109" s="3" t="s">
         <v>8</v>
@@ -1974,7 +1974,7 @@
         <v>13</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C110" s="3" t="s">
         <v>8</v>
@@ -1985,7 +1985,7 @@
         <v>14</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C111" s="3" t="s">
         <v>8</v>
@@ -1996,7 +1996,7 @@
         <v>15</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C112" s="3" t="s">
         <v>8</v>
@@ -2007,7 +2007,7 @@
         <v>16</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C113" s="3" t="s">
         <v>8</v>
@@ -2018,7 +2018,7 @@
         <v>17</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C114" s="3" t="s">
         <v>8</v>
@@ -2029,7 +2029,7 @@
         <v>18</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C115" s="3" t="s">
         <v>8</v>
@@ -2040,7 +2040,7 @@
         <v>18</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C116" s="3" t="s">
         <v>8</v>
@@ -2051,7 +2051,7 @@
         <v>19</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C117" s="3" t="s">
         <v>8</v>
@@ -2062,7 +2062,7 @@
         <v>19</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C118" s="3" t="s">
         <v>8</v>
@@ -2081,7 +2081,7 @@
         <v>10</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C120" s="3" t="s">
         <v>9</v>
@@ -2092,7 +2092,7 @@
         <v>11</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C121" s="3" t="s">
         <v>9</v>
@@ -2103,7 +2103,7 @@
         <v>12</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C122" s="3" t="s">
         <v>9</v>
@@ -2114,7 +2114,7 @@
         <v>13</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C123" s="3" t="s">
         <v>9</v>
@@ -2125,7 +2125,7 @@
         <v>14</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C124" s="3" t="s">
         <v>9</v>
@@ -2136,7 +2136,7 @@
         <v>15</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C125" s="3" t="s">
         <v>9</v>
@@ -2147,7 +2147,7 @@
         <v>16</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C126" s="3" t="s">
         <v>9</v>
@@ -2158,7 +2158,7 @@
         <v>17</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C127" s="3" t="s">
         <v>9</v>
@@ -2169,7 +2169,7 @@
         <v>18</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C128" s="3" t="s">
         <v>9</v>
@@ -2180,7 +2180,7 @@
         <v>18</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C129" s="3" t="s">
         <v>9</v>
@@ -2191,7 +2191,7 @@
         <v>19</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C130" s="3" t="s">
         <v>9</v>
@@ -2202,7 +2202,7 @@
         <v>19</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C131" s="3" t="s">
         <v>9</v>

--- a/data/Lineups.xlsx
+++ b/data/Lineups.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="183">
   <si>
     <t>CATEGORY</t>
   </si>
@@ -110,9 +110,6 @@
     <t>Sam Rockwell</t>
   </si>
   <si>
-    <t>Widows</t>
-  </si>
-  <si>
     <t>Ethan Hawke</t>
   </si>
   <si>
@@ -453,6 +450,129 @@
   </si>
   <si>
     <t>Nick Vallelonga</t>
+  </si>
+  <si>
+    <t>Boots Riley</t>
+  </si>
+  <si>
+    <t>Cold War</t>
+  </si>
+  <si>
+    <t>Elsie Fisher</t>
+  </si>
+  <si>
+    <t>Black Panther Makeup</t>
+  </si>
+  <si>
+    <t>Hans Zimmer</t>
+  </si>
+  <si>
+    <t>Thomasin McKenzie</t>
+  </si>
+  <si>
+    <t>Amy Ryan</t>
+  </si>
+  <si>
+    <t>Hugh Jackman</t>
+  </si>
+  <si>
+    <t>Black Panther Sound</t>
+  </si>
+  <si>
+    <t>Village Rockstars</t>
+  </si>
+  <si>
+    <t>Eighth Grade</t>
+  </si>
+  <si>
+    <t>Mary Queen of Scots Makeup</t>
+  </si>
+  <si>
+    <t>Shirkers</t>
+  </si>
+  <si>
+    <t>First Reformed</t>
+  </si>
+  <si>
+    <t>Adam McKay</t>
+  </si>
+  <si>
+    <t>Believer</t>
+  </si>
+  <si>
+    <t>Michael Carlin</t>
+  </si>
+  <si>
+    <t>Bohemian Rhapsody Sound</t>
+  </si>
+  <si>
+    <t>Saoirse Ronan</t>
+  </si>
+  <si>
+    <t>Andrea Flesch</t>
+  </si>
+  <si>
+    <t>Mirai</t>
+  </si>
+  <si>
+    <t>Ruben Brandt Collector</t>
+  </si>
+  <si>
+    <t>Border</t>
+  </si>
+  <si>
+    <t>John David Washington</t>
+  </si>
+  <si>
+    <t>Leave No Trace</t>
+  </si>
+  <si>
+    <t>Kris Bowers</t>
+  </si>
+  <si>
+    <t>Anna Terraza</t>
+  </si>
+  <si>
+    <t>Hale County This Morning This Evening</t>
+  </si>
+  <si>
+    <t>Birds of Passage</t>
+  </si>
+  <si>
+    <t>Crazy Rich Asians</t>
+  </si>
+  <si>
+    <t>Kathryn Hahn</t>
+  </si>
+  <si>
+    <t>Paul Schrader</t>
+  </si>
+  <si>
+    <t>Regina Hall</t>
+  </si>
+  <si>
+    <t>Amandla Stenberg</t>
+  </si>
+  <si>
+    <t>Toni Collette</t>
+  </si>
+  <si>
+    <t>Ari Aster</t>
+  </si>
+  <si>
+    <t>Bisbee '17</t>
+  </si>
+  <si>
+    <t>Wildlife</t>
+  </si>
+  <si>
+    <t>Crime + Punishment</t>
+  </si>
+  <si>
+    <t>Of Fathers and Sons</t>
+  </si>
+  <si>
+    <t>On Her Shoulders</t>
   </si>
 </sst>
 </file>
@@ -782,11 +902,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C131"/>
+  <dimension ref="A1:C171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B106" sqref="B106"/>
+      <selection pane="topRight" activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -801,18 +921,18 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>139</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -823,7 +943,7 @@
         <v>20</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -831,10 +951,10 @@
         <v>11</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -845,7 +965,7 @@
         <v>21</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -853,10 +973,10 @@
         <v>13</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -867,7 +987,7 @@
         <v>23</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -878,7 +998,7 @@
         <v>24</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -889,7 +1009,7 @@
         <v>25</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -900,7 +1020,7 @@
         <v>22</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -908,10 +1028,10 @@
         <v>18</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>26</v>
+        <v>181</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -919,10 +1039,10 @@
         <v>18</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>29</v>
+        <v>182</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -930,10 +1050,10 @@
         <v>19</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -944,56 +1064,56 @@
         <v>27</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>1</v>
+      <c r="A15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>1</v>
+        <v>19</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>1</v>
@@ -1001,21 +1121,21 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>1</v>
@@ -1023,10 +1143,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>1</v>
@@ -1034,10 +1154,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>1</v>
@@ -1045,10 +1165,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>1</v>
@@ -1056,10 +1176,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>1</v>
@@ -1067,10 +1187,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>1</v>
@@ -1078,106 +1198,106 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>2</v>
+      <c r="A28" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>51</v>
+        <v>19</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>145</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>46</v>
+        <v>19</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>146</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>49</v>
+        <v>19</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>147</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>47</v>
+        <v>19</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>148</v>
       </c>
       <c r="C35" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>2</v>
@@ -1185,10 +1305,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>2</v>
@@ -1196,10 +1316,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>2</v>
@@ -1207,10 +1327,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>2</v>
@@ -1218,249 +1338,252 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
-        <v>3</v>
+      <c r="A41" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>60</v>
+        <v>152</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>63</v>
+        <v>19</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>149</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>67</v>
+        <v>19</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>150</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>65</v>
+        <v>19</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>151</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B52" s="1" t="s">
-        <v>66</v>
+      <c r="B52" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="C52" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>64</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="2" t="s">
-        <v>4</v>
+      <c r="A54" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -1468,21 +1591,21 @@
         <v>18</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -1490,721 +1613,1158 @@
         <v>19</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B66" s="1" t="s">
-        <v>79</v>
+      <c r="B66" s="3" t="s">
+        <v>153</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B67" s="3"/>
-      <c r="C67" s="1" t="s">
-        <v>5</v>
+      <c r="A67" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>5</v>
+      <c r="A70" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>5</v>
+        <v>67</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>5</v>
+        <v>68</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>5</v>
+        <v>69</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>5</v>
+        <v>70</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>5</v>
+        <v>72</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>5</v>
+        <v>73</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>5</v>
+        <v>75</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>5</v>
+        <v>76</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>6</v>
+      <c r="A80" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>6</v>
+        <v>77</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C82" s="3" t="s">
-        <v>6</v>
+        <v>78</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C83" s="3" t="s">
-        <v>6</v>
+        <v>71</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C84" s="3" t="s">
-        <v>6</v>
+        <v>19</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C85" s="3" t="s">
-        <v>6</v>
+        <v>19</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C86" s="3" t="s">
-        <v>6</v>
+        <v>74</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C87" s="3" t="s">
-        <v>6</v>
+      <c r="A87" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B87" s="3"/>
+      <c r="C87" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C88" s="3" t="s">
-        <v>6</v>
+        <v>79</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C89" s="3" t="s">
-        <v>6</v>
+        <v>81</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C90" s="3" t="s">
-        <v>6</v>
+        <v>80</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C91" s="3" t="s">
-        <v>6</v>
+        <v>88</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C92" s="3" t="s">
-        <v>6</v>
+        <v>132</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C93" s="3" t="s">
-        <v>7</v>
+      <c r="A93" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C94" s="3" t="s">
-        <v>7</v>
+        <v>86</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C95" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C96" s="3" t="s">
-        <v>7</v>
+        <v>89</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C97" s="3" t="s">
-        <v>7</v>
+        <v>82</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C98" s="3" t="s">
-        <v>7</v>
+        <v>83</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C99" s="3" t="s">
-        <v>7</v>
+        <v>84</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C100" s="3" t="s">
-        <v>7</v>
+        <v>19</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C101" s="3" t="s">
-        <v>7</v>
+        <v>19</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C102" s="3" t="s">
-        <v>7</v>
+        <v>19</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C103" s="3" t="s">
-        <v>7</v>
+        <v>19</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>111</v>
+      <c r="A104" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>142</v>
+        <v>166</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A106" s="2" t="s">
-        <v>8</v>
+      <c r="A106" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>165</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>134</v>
+        <v>97</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>117</v>
+        <v>167</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>118</v>
+        <v>180</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>135</v>
+        <v>90</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>136</v>
+        <v>98</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B117" s="1" t="s">
-        <v>116</v>
+      <c r="B117" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B118" s="1" t="s">
-        <v>120</v>
+      <c r="B118" s="3" t="s">
+        <v>99</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A119" s="2" t="s">
-        <v>9</v>
+      <c r="A119" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>137</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B120" s="1" t="s">
-        <v>121</v>
+        <v>19</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>96</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A121" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B121" s="1" t="s">
-        <v>123</v>
+      <c r="A121" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>126</v>
+        <v>100</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>127</v>
+        <v>103</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B126" s="1" t="s">
-        <v>122</v>
+        <v>14</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>169</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>128</v>
+        <v>102</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>131</v>
+        <v>104</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>132</v>
+        <v>179</v>
       </c>
       <c r="C131" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C134" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C143" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C145" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C146" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C147" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C148" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C149" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C150" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B151" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C151" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B152" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C152" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B153" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C153" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B154" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C154" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C155" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C156" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C157" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C158" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C159" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C160" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C161" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C162" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C163" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C164" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C165" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C166" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C167" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B168" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C168" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B169" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C169" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B170" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C170" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B171" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C171" s="3" t="s">
         <v>9</v>
       </c>
     </row>
